--- a/Intakeform.xlsx
+++ b/Intakeform.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theo_code\Documents\healthcare project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theo_code_2\Documents\Projects\Health-Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B7E551-34B5-49F5-BA17-693442BE97EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D25E16-F3D1-4D3B-B42C-36D9933C1714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="870" windowWidth="17370" windowHeight="9475" xr2:uid="{E61E2F1C-A764-4CFD-8180-167B0811AAFD}"/>
+    <workbookView xWindow="3170" yWindow="2790" windowWidth="24830" windowHeight="12760" xr2:uid="{E61E2F1C-A764-4CFD-8180-167B0811AAFD}"/>
   </bookViews>
   <sheets>
     <sheet name="PatientIntake" sheetId="1" r:id="rId1"/>
+    <sheet name="KnownPatient" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,58 +37,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
-    <t>firstName</t>
+    <t>Patient_ID</t>
   </si>
   <si>
-    <t>lastName</t>
+    <t>Date_of_Birth</t>
   </si>
   <si>
-    <t>Dob</t>
+    <t>Gender</t>
   </si>
   <si>
-    <t>queeue</t>
+    <t>Phone_Number</t>
   </si>
   <si>
-    <t>insurance</t>
+    <t>Email</t>
   </si>
   <si>
-    <t>copay</t>
+    <t>Address</t>
   </si>
   <si>
-    <t>adan</t>
+    <t>Insurance_Provider</t>
   </si>
   <si>
-    <t>tres</t>
+    <t>Insurance_ID</t>
   </si>
   <si>
-    <t>gurt</t>
+    <t>Emergency_Contact_Name</t>
   </si>
   <si>
-    <t>mik</t>
+    <t>Emergency_Contact_Phone</t>
   </si>
   <si>
-    <t>ike</t>
+    <t>Allergies</t>
   </si>
   <si>
-    <t>aaad</t>
+    <t>Current_Medications</t>
   </si>
   <si>
-    <t>plan 1</t>
+    <t>Medical_Conditions</t>
   </si>
   <si>
-    <t>plan 2</t>
+    <t>Reason_For_Visit</t>
+  </si>
+  <si>
+    <t>Preferred_Pharmacy</t>
+  </si>
+  <si>
+    <t>Full_Name</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>Sophia Martinez</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>(347) 555-2984</t>
+  </si>
+  <si>
+    <t>sophia.martinez@email.com</t>
+  </si>
+  <si>
+    <t>89 Prospect Ave, Bronx, NY 10455</t>
+  </si>
+  <si>
+    <t>UnitedHealthcare</t>
+  </si>
+  <si>
+    <t>UHC77442311</t>
+  </si>
+  <si>
+    <t>Carlos Martinez</t>
+  </si>
+  <si>
+    <t>(347) 555-8812</t>
+  </si>
+  <si>
+    <t>Shellfish</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Rite Aid - Bronx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,14 +167,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,24 +516,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C19AD6-23A2-49BA-AD9C-3CE3EB53491E}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{61C19AD6-23A2-49BA-AD9C-3CE3EB53491E}">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="A2" sqref="A2:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="8.953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -475,73 +549,3271 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>36352</v>
-      </c>
-      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43619</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>40577</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
-        <v>40</v>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>MDX0027</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Patient 27 Example</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>1/27/1985</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>General Checkup</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>MDX0028</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Patient 28 Example</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>1/28/1985</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Latex</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>General Checkup</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MDX0029</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Patient 29 Example</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>1/29/1985</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>General Checkup</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MDX0030</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Patient 30 Example</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>1/30/1985</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealth</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>General Checkup</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MDX0031</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Patient 31 Example</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>1/31/1985</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>General Checkup</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BCB12345678</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Emma Johnson</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>3/15/1987</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>Blue Cross Blue Shield</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>Penicillin</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>Albuterol</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>Asthma</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>Shortness of breath</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AET99284567</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>James Carter</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>8/2/1975</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>Aetna Health</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>Lisinopril</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>Hypertension</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>Annual physical</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>P003</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Sophia Martinez</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>5/21/1992</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealthcare</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>Routine check-up</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CIG55432190</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>David Wilson</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>1/17/1980</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>Cigna Healthcare</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>Metformin</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>Type 2 Diabetes</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>Follow-up appointment</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>HUM98765123</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Ava Thompson</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>9/9/1990</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>Humana</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>Sumatriptan</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>Migraine</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>Headache consultation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>KP66443901</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Liam Davis</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>12/29/1985</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>Kaiser Permanente</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>Latex</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>Atorvastatin</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>High cholesterol</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="inlineStr">
+        <is>
+          <t>Lab results review</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7A7L8TZAD6</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Lucas Williams</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>7/6/1978</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>Kaiser Permanente</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>Ibuprofen</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>Routine check-up</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>LXOFKG7VLX</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Ava Miller</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>7/3/2004</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>Consultation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>NHDZ24H5S8</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Noah Lopez</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>3/14/1983</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>BlueCross</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>OCDVDKSKL9</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Mia Brown</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>3/14/1980</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>Hypertension</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Q899C4YYRX</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Ava Brown</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>11/26/1988</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealthcare</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>Albuterol</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes</t>
+        </is>
+      </c>
+      <c r="I17" s="1" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Q86NHOME0H</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Emma Davis</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>8/24/1993</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>Humana</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>Routine check-up</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>SANYVPAZRI</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Emma Garcia</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>3/12/1990</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealthcare</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>Ibuprofen</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I19" s="1" t="inlineStr">
+        <is>
+          <t>Consultation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1QQMHZAH4S</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Liam Rodriguez</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>3/12/1980</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealthcare</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>Asthma</t>
+        </is>
+      </c>
+      <c r="I20" s="1" t="inlineStr">
+        <is>
+          <t>Consultation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>DTTRGOP3PD</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Lucas Williams</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>1/27/2000</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>Albuterol</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>TFGUXNBB12</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Emma Smith</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>7/7/1976</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealthcare</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>Albuterol</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I22" s="1" t="inlineStr">
+        <is>
+          <t>Follow-up</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Z6DRMBEJXA</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Olivia Williams</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>12/6/1977</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>Humana</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>Ibuprofen</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I23" s="1" t="inlineStr">
+        <is>
+          <t>Consultation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>8AXNOEP801</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Isabella Smith</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>11/23/1977</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes</t>
+        </is>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>Consultation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>GGZE8JUJS2</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Sophia Brown</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>2/15/1995</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>BlueCross</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>Albuterol</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I25" s="1" t="inlineStr">
+        <is>
+          <t>Follow-up</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>8EVF4C43BV</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Lucas Lopez</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>8/13/2005</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>BlueCross</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>Dust</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>Albuterol</t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes</t>
+        </is>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
+        <is>
+          <t>Routine check-up</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>YYC6QTYARV</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Sophia Garcia</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>6/24/1985</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>Humana</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I27" s="1" t="inlineStr">
+        <is>
+          <t>Follow-up</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>SBNP5SWG6U</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Lucas Garcia</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>5/10/1988</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealthcare</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>Metformin</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>Follow-up</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>7AIA0OO9CG</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Mia Brown</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>3/20/1997</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>Kaiser Permanente</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t>Hypertension</t>
+        </is>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t>Consultation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>TG0SQA3NGB</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Sophia Johnson</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>9/5/2002</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H30" s="1" t="inlineStr">
+        <is>
+          <t>Asthma</t>
+        </is>
+      </c>
+      <c r="I30" s="1" t="inlineStr">
+        <is>
+          <t>Follow-up</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>H7YQV45TBN</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Noah Martinez</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>3/14/1984</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>BlueCross</t>
+        </is>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>Asthma</t>
+        </is>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>Consultation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>76S75MDGM6</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Noah Johnson</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>3/23/1995</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>Kaiser Permanente</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H32" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
+        <is>
+          <t>Routine check-up</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>MDX0027</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Patient 27 Example</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>1/27/1985</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>General Checkup</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>MDX0028</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Patient 28 Example</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>1/28/1985</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>Latex</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>General Checkup</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>MDX0029</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Patient 29 Example</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>1/29/1985</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>General Checkup</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>MDX0030</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Patient 30 Example</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>1/30/1985</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealth</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I36" s="1" t="inlineStr">
+        <is>
+          <t>General Checkup</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>MDX0031</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Patient 31 Example</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>1/31/1985</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I37" s="1" t="inlineStr">
+        <is>
+          <t>General Checkup</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{70F5C919-9493-4F3D-9506-789D45C29AD0}">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="false">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row spans="1:15" x14ac:dyDescent="0.35" outlineLevel="0" r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
+        <v>33745</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>MDX0027</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Patient 27 Example</t>
+        </is>
+      </c>
+      <c r="C3" s="2">
+        <v>31074</v>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MDX0028</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Patient 28 Example</t>
+        </is>
+      </c>
+      <c r="C4" s="2">
+        <v>31075</v>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>Latex</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MDX0029</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Patient 29 Example</t>
+        </is>
+      </c>
+      <c r="C5" s="2">
+        <v>31076</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MDX0030</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Patient 30 Example</t>
+        </is>
+      </c>
+      <c r="C6" s="2">
+        <v>31077</v>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealth</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>MDX0031</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Patient 31 Example</t>
+        </is>
+      </c>
+      <c r="C7" s="2">
+        <v>31078</v>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>BCB12345678</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Emma Johnson</t>
+        </is>
+      </c>
+      <c r="C8" s="2">
+        <v>31851</v>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>Blue Cross Blue Shield</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>Penicillin</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>Albuterol</t>
+        </is>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>Asthma</t>
+        </is>
+      </c>
+      <c r="O8" s="1" t="inlineStr">
+        <is>
+          <t>CVS - 5th Ave</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AET99284567</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>James Carter</t>
+        </is>
+      </c>
+      <c r="C9" s="2">
+        <v>27608</v>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>Aetna Health</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>Lisinopril</t>
+        </is>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>Hypertension</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>Walgreens - Midtown</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CIG55432190</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>David Wilson</t>
+        </is>
+      </c>
+      <c r="C10" s="2">
+        <v>29237</v>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>Cigna Healthcare</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>Metformin</t>
+        </is>
+      </c>
+      <c r="N10" s="1" t="inlineStr">
+        <is>
+          <t>Type 2 Diabetes</t>
+        </is>
+      </c>
+      <c r="O10" s="1" t="inlineStr">
+        <is>
+          <t>CVS - Atlantic Ave</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>HUM98765123</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Ava Thompson</t>
+        </is>
+      </c>
+      <c r="C11" s="2">
+        <v>33125</v>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>Humana</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>Sumatriptan</t>
+        </is>
+      </c>
+      <c r="N11" s="1" t="inlineStr">
+        <is>
+          <t>Migraine</t>
+        </is>
+      </c>
+      <c r="O11" s="1" t="inlineStr">
+        <is>
+          <t>Walgreens - Chelsea</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>KP66443901</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Liam Davis</t>
+        </is>
+      </c>
+      <c r="C12" s="2">
+        <v>31410</v>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>Kaiser Permanente</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>Latex</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>Atorvastatin</t>
+        </is>
+      </c>
+      <c r="N12" s="1" t="inlineStr">
+        <is>
+          <t>High cholesterol</t>
+        </is>
+      </c>
+      <c r="O12" s="1" t="inlineStr">
+        <is>
+          <t>Duane Reade - Wall St</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7A7L8TZAD6</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Lucas Williams</t>
+        </is>
+      </c>
+      <c r="C13" s="2">
+        <v>28677</v>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>Kaiser Permanente</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>Ibuprofen</t>
+        </is>
+      </c>
+      <c r="N13" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O13" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>LXOFKG7VLX</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Ava Miller</t>
+        </is>
+      </c>
+      <c r="C14" s="2">
+        <v>38171</v>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="M14" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N14" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes</t>
+        </is>
+      </c>
+      <c r="O14" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>NHDZ24H5S8</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Noah Lopez</t>
+        </is>
+      </c>
+      <c r="C15" s="2">
+        <v>30389</v>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>BlueCross</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="M15" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N15" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O15" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>OCDVDKSKL9</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Mia Brown</t>
+        </is>
+      </c>
+      <c r="C16" s="2">
+        <v>29294</v>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N16" s="1" t="inlineStr">
+        <is>
+          <t>Hypertension</t>
+        </is>
+      </c>
+      <c r="O16" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Q899C4YYRX</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Ava Brown</t>
+        </is>
+      </c>
+      <c r="C17" s="2">
+        <v>32473</v>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealthcare</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="M17" s="1" t="inlineStr">
+        <is>
+          <t>Albuterol</t>
+        </is>
+      </c>
+      <c r="N17" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes</t>
+        </is>
+      </c>
+      <c r="O17" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Q86NHOME0H</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Emma Davis</t>
+        </is>
+      </c>
+      <c r="C18" s="2">
+        <v>34205</v>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>Humana</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M18" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N18" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O18" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>SANYVPAZRI</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Emma Garcia</t>
+        </is>
+      </c>
+      <c r="C19" s="2">
+        <v>32944</v>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealthcare</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="M19" s="1" t="inlineStr">
+        <is>
+          <t>Ibuprofen</t>
+        </is>
+      </c>
+      <c r="N19" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O19" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1QQMHZAH4S</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Liam Rodriguez</t>
+        </is>
+      </c>
+      <c r="C20" s="2">
+        <v>29292</v>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealthcare</t>
+        </is>
+      </c>
+      <c r="L20" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="M20" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N20" s="1" t="inlineStr">
+        <is>
+          <t>Asthma</t>
+        </is>
+      </c>
+      <c r="O20" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>DTTRGOP3PD</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Lucas Williams</t>
+        </is>
+      </c>
+      <c r="C21" s="2">
+        <v>36552</v>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t>Albuterol</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O21" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>TFGUXNBB12</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Emma Smith</t>
+        </is>
+      </c>
+      <c r="C22" s="2">
+        <v>27948</v>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealthcare</t>
+        </is>
+      </c>
+      <c r="L22" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M22" s="1" t="inlineStr">
+        <is>
+          <t>Albuterol</t>
+        </is>
+      </c>
+      <c r="N22" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O22" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Z6DRMBEJXA</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Olivia Williams</t>
+        </is>
+      </c>
+      <c r="C23" s="2">
+        <v>28465</v>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>Humana</t>
+        </is>
+      </c>
+      <c r="L23" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="M23" s="1" t="inlineStr">
+        <is>
+          <t>Ibuprofen</t>
+        </is>
+      </c>
+      <c r="N23" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O23" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>8AXNOEP801</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Isabella Smith</t>
+        </is>
+      </c>
+      <c r="C24" s="2">
+        <v>28452</v>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M24" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N24" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes</t>
+        </is>
+      </c>
+      <c r="O24" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>GGZE8JUJS2</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Sophia Brown</t>
+        </is>
+      </c>
+      <c r="C25" s="2">
+        <v>34745</v>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
+        <is>
+          <t>BlueCross</t>
+        </is>
+      </c>
+      <c r="L25" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="M25" s="1" t="inlineStr">
+        <is>
+          <t>Albuterol</t>
+        </is>
+      </c>
+      <c r="N25" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O25" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>8EVF4C43BV</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Lucas Lopez</t>
+        </is>
+      </c>
+      <c r="C26" s="2">
+        <v>38577</v>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="inlineStr">
+        <is>
+          <t>BlueCross</t>
+        </is>
+      </c>
+      <c r="L26" s="1" t="inlineStr">
+        <is>
+          <t>Dust</t>
+        </is>
+      </c>
+      <c r="M26" s="1" t="inlineStr">
+        <is>
+          <t>Albuterol</t>
+        </is>
+      </c>
+      <c r="N26" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes</t>
+        </is>
+      </c>
+      <c r="O26" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>YYC6QTYARV</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Sophia Garcia</t>
+        </is>
+      </c>
+      <c r="C27" s="2">
+        <v>31222</v>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="inlineStr">
+        <is>
+          <t>Humana</t>
+        </is>
+      </c>
+      <c r="L27" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="M27" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N27" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O27" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>SBNP5SWG6U</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Lucas Garcia</t>
+        </is>
+      </c>
+      <c r="C28" s="2">
+        <v>32273</v>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealthcare</t>
+        </is>
+      </c>
+      <c r="L28" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="M28" s="1" t="inlineStr">
+        <is>
+          <t>Metformin</t>
+        </is>
+      </c>
+      <c r="N28" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O28" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>7AIA0OO9CG</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Mia Brown</t>
+        </is>
+      </c>
+      <c r="C29" s="2">
+        <v>35509</v>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t>Kaiser Permanente</t>
+        </is>
+      </c>
+      <c r="L29" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M29" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N29" s="1" t="inlineStr">
+        <is>
+          <t>Hypertension</t>
+        </is>
+      </c>
+      <c r="O29" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>TG0SQA3NGB</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Sophia Johnson</t>
+        </is>
+      </c>
+      <c r="C30" s="2">
+        <v>37504</v>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H30" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="L30" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="M30" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N30" s="1" t="inlineStr">
+        <is>
+          <t>Asthma</t>
+        </is>
+      </c>
+      <c r="O30" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>H7YQV45TBN</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Noah Martinez</t>
+        </is>
+      </c>
+      <c r="C31" s="2">
+        <v>30755</v>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>BlueCross</t>
+        </is>
+      </c>
+      <c r="L31" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="M31" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N31" s="1" t="inlineStr">
+        <is>
+          <t>Asthma</t>
+        </is>
+      </c>
+      <c r="O31" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>76S75MDGM6</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Noah Johnson</t>
+        </is>
+      </c>
+      <c r="C32" s="2">
+        <v>34781</v>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H32" s="1" t="inlineStr">
+        <is>
+          <t>Kaiser Permanente</t>
+        </is>
+      </c>
+      <c r="L32" s="1" t="inlineStr">
+        <is>
+          <t>Shellfish</t>
+        </is>
+      </c>
+      <c r="M32" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N32" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O32" s="1" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>MDX0027</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Patient 27 Example</t>
+        </is>
+      </c>
+      <c r="C33" s="2">
+        <v>31074</v>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H33" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="L33" s="1" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="M33" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>MDX0028</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Patient 28 Example</t>
+        </is>
+      </c>
+      <c r="C34" s="2">
+        <v>31075</v>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H34" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="L34" s="1" t="inlineStr">
+        <is>
+          <t>Latex</t>
+        </is>
+      </c>
+      <c r="M34" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>MDX0029</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Patient 29 Example</t>
+        </is>
+      </c>
+      <c r="C35" s="2">
+        <v>31076</v>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="inlineStr">
+        <is>
+          <t>Aetna</t>
+        </is>
+      </c>
+      <c r="L35" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="M35" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>MDX0030</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Patient 30 Example</t>
+        </is>
+      </c>
+      <c r="C36" s="2">
+        <v>31077</v>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H36" s="1" t="inlineStr">
+        <is>
+          <t>UnitedHealth</t>
+        </is>
+      </c>
+      <c r="L36" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="M36" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>MDX0031</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Patient 31 Example</t>
+        </is>
+      </c>
+      <c r="C37" s="2">
+        <v>31078</v>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>Cigna</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>Pollen</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="mailto:sophia.martinez@email.com" xr:uid="{DACAD828-FFE3-4ADB-A7D1-C515F3196FBF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>